--- a/biology/Botanique/Jardin_de_l'Impératrice-Eugénie/Jardin_de_l'Impératrice-Eugénie.xlsx
+++ b/biology/Botanique/Jardin_de_l'Impératrice-Eugénie/Jardin_de_l'Impératrice-Eugénie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_de_l%27Imp%C3%A9ratrice-Eug%C3%A9nie</t>
+          <t>Jardin_de_l'Impératrice-Eugénie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin de l'Impératrice-Eugénie est un espace vert du 12e arrondissement de Paris, en France. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_de_l%27Imp%C3%A9ratrice-Eug%C3%A9nie</t>
+          <t>Jardin_de_l'Impératrice-Eugénie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il est accessible par le 2, rue de Picpus.
 Ce site est desservi par les lignes 1, 2, 6 et 9 à la station de métro Nation et par la ligne A du RER à la gare de Nation.</t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_de_l%27Imp%C3%A9ratrice-Eug%C3%A9nie</t>
+          <t>Jardin_de_l'Impératrice-Eugénie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin porte le nom de l'impératrice des Français, Eugénie de Montijo, épouse de Napoléon III, depuis une délibération du Conseil de Paris du 13 décembre 2019[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin porte le nom de l'impératrice des Français, Eugénie de Montijo, épouse de Napoléon III, depuis une délibération du Conseil de Paris du 13 décembre 2019.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardin_de_l%27Imp%C3%A9ratrice-Eug%C3%A9nie</t>
+          <t>Jardin_de_l'Impératrice-Eugénie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors du mariage de Napoléon III avec Eugénie de Montijo en 1853, la Ville de Paris offre un collier de diamants à l'impératrice. Celle-ci le refuse et demande que l'on fasse plutôt construire un orphelinat, la future Maison Eugène-Napoléon. Le projet se concrétise en 1856, et est agrémenté de l'actuel jardin, dont le dessin n'a pas été modifié depuis[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors du mariage de Napoléon III avec Eugénie de Montijo en 1853, la Ville de Paris offre un collier de diamants à l'impératrice. Celle-ci le refuse et demande que l'on fasse plutôt construire un orphelinat, la future Maison Eugène-Napoléon. Le projet se concrétise en 1856, et est agrémenté de l'actuel jardin, dont le dessin n'a pas été modifié depuis.
 Jusqu'en 2007, le jardin faisait partie intégrante de la Fondation Eugène-Napoléon et n'était pas ouvert au public. Cette année là, le jardin est ouvert au public sous le nom Jardin de la Fondation-Eugène-Napoléon.
 </t>
         </is>
